--- a/outputs-HGR-r202/train-g__Fusobacterium_A_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Fusobacterium_A_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="587">
   <si>
     <t>Row</t>
   </si>
@@ -1433,6 +1434,351 @@
   </si>
   <si>
     <t>label_GCF_000159915_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS548_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_110.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_128.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_134.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_137.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_138.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_140.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS539_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1197_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1824_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1824_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1824_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1824_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1871_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1871_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1871_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1871_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1871_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1871_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1871_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1871_40.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000158315_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_117.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_130.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_140.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_155.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1068_96.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000159915_4.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000159915_6.fasta</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1799,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1469,11 +1815,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1483,6 +1831,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19212,4 +19562,4435 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L116"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="true"/>
+    <col min="2" max="2" width="30.140625" customWidth="true"/>
+    <col min="3" max="3" width="30.85546875" customWidth="true"/>
+    <col min="4" max="4" width="30.85546875" customWidth="true"/>
+    <col min="5" max="5" width="30.85546875" customWidth="true"/>
+    <col min="6" max="6" width="30.85546875" customWidth="true"/>
+    <col min="7" max="7" width="30.85546875" customWidth="true"/>
+    <col min="8" max="8" width="27.28515625" customWidth="true"/>
+    <col min="9" max="9" width="29.5703125" customWidth="true"/>
+    <col min="10" max="10" width="26" customWidth="true"/>
+    <col min="11" max="11" width="10.28515625" customWidth="true"/>
+    <col min="12" max="12" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2">
+        <v>0.003291703646397044</v>
+      </c>
+      <c r="C2">
+        <v>0.86166957217295148</v>
+      </c>
+      <c r="D2">
+        <v>0.004451787178754954</v>
+      </c>
+      <c r="E2">
+        <v>0.0011864190394173342</v>
+      </c>
+      <c r="F2">
+        <v>0.0014915474427672523</v>
+      </c>
+      <c r="G2">
+        <v>0.090700059548946679</v>
+      </c>
+      <c r="H2">
+        <v>0.0070494659625720693</v>
+      </c>
+      <c r="I2">
+        <v>0.012197816314366302</v>
+      </c>
+      <c r="J2">
+        <v>0.017961628693826684</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3">
+        <v>0.010791545742061252</v>
+      </c>
+      <c r="C3">
+        <v>0.87442054871187469</v>
+      </c>
+      <c r="D3">
+        <v>0.0072261206113110677</v>
+      </c>
+      <c r="E3">
+        <v>0.0022762672289661739</v>
+      </c>
+      <c r="F3">
+        <v>0.00088140427262090341</v>
+      </c>
+      <c r="G3">
+        <v>0.089378912241241559</v>
+      </c>
+      <c r="H3">
+        <v>0.0037394889692193502</v>
+      </c>
+      <c r="I3">
+        <v>0.0066843538280703827</v>
+      </c>
+      <c r="J3">
+        <v>0.0046013583946348151</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4">
+        <v>0.099377494360687477</v>
+      </c>
+      <c r="C4">
+        <v>0.69687975109312716</v>
+      </c>
+      <c r="D4">
+        <v>0.010349635524749634</v>
+      </c>
+      <c r="E4">
+        <v>0.02192115974313363</v>
+      </c>
+      <c r="F4">
+        <v>0.0013237189998927164</v>
+      </c>
+      <c r="G4">
+        <v>0.016127080693864367</v>
+      </c>
+      <c r="H4">
+        <v>0.00089428322603836517</v>
+      </c>
+      <c r="I4">
+        <v>0.0073327406816141713</v>
+      </c>
+      <c r="J4">
+        <v>0.14579413567689231</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5">
+        <v>0.0011982015884607759</v>
+      </c>
+      <c r="C5">
+        <v>0.76657126034492085</v>
+      </c>
+      <c r="D5">
+        <v>0.0054336764359142588</v>
+      </c>
+      <c r="E5">
+        <v>0.0015228404120178982</v>
+      </c>
+      <c r="F5">
+        <v>0.0022517662599950763</v>
+      </c>
+      <c r="G5">
+        <v>0.16165028898777373</v>
+      </c>
+      <c r="H5">
+        <v>0.020788363149290834</v>
+      </c>
+      <c r="I5">
+        <v>0.021099494119482167</v>
+      </c>
+      <c r="J5">
+        <v>0.019484108702144405</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B6">
+        <v>0.011790015518165378</v>
+      </c>
+      <c r="C6">
+        <v>0.89445528916060069</v>
+      </c>
+      <c r="D6">
+        <v>0.012924020827657076</v>
+      </c>
+      <c r="E6">
+        <v>0.0019739324831768907</v>
+      </c>
+      <c r="F6">
+        <v>0.011576036802955268</v>
+      </c>
+      <c r="G6">
+        <v>0.036533273515854017</v>
+      </c>
+      <c r="H6">
+        <v>0.0012333017965839481</v>
+      </c>
+      <c r="I6">
+        <v>0.004323655959161548</v>
+      </c>
+      <c r="J6">
+        <v>0.025190473935845413</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7">
+        <v>0.015308002874524444</v>
+      </c>
+      <c r="C7">
+        <v>0.78835627703447042</v>
+      </c>
+      <c r="D7">
+        <v>0.0087934123770819668</v>
+      </c>
+      <c r="E7">
+        <v>0.0034347732129321011</v>
+      </c>
+      <c r="F7">
+        <v>0.011750932997292109</v>
+      </c>
+      <c r="G7">
+        <v>0.053803073448925993</v>
+      </c>
+      <c r="H7">
+        <v>0.0039217387531658354</v>
+      </c>
+      <c r="I7">
+        <v>0.010153938041602716</v>
+      </c>
+      <c r="J7">
+        <v>0.10447785126000421</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8">
+        <v>0.012830080484139004</v>
+      </c>
+      <c r="C8">
+        <v>0.8303909886769667</v>
+      </c>
+      <c r="D8">
+        <v>0.038308686837182207</v>
+      </c>
+      <c r="E8">
+        <v>0.0039071357060579534</v>
+      </c>
+      <c r="F8">
+        <v>0.018211492870326657</v>
+      </c>
+      <c r="G8">
+        <v>0.058458280489222809</v>
+      </c>
+      <c r="H8">
+        <v>0.0023736406629346063</v>
+      </c>
+      <c r="I8">
+        <v>0.016000948178998189</v>
+      </c>
+      <c r="J8">
+        <v>0.019518746094172083</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9">
+        <v>0.0027964300659252352</v>
+      </c>
+      <c r="C9">
+        <v>0.84828360152175719</v>
+      </c>
+      <c r="D9">
+        <v>0.018344792498312393</v>
+      </c>
+      <c r="E9">
+        <v>0.001903084660101625</v>
+      </c>
+      <c r="F9">
+        <v>0.010191910851935666</v>
+      </c>
+      <c r="G9">
+        <v>0.10311026186474838</v>
+      </c>
+      <c r="H9">
+        <v>0.0017196398654580718</v>
+      </c>
+      <c r="I9">
+        <v>0.011222776459494148</v>
+      </c>
+      <c r="J9">
+        <v>0.0024275022122672791</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10">
+        <v>0.0068847751596078505</v>
+      </c>
+      <c r="C10">
+        <v>0.78599089096587427</v>
+      </c>
+      <c r="D10">
+        <v>0.043786902085647797</v>
+      </c>
+      <c r="E10">
+        <v>0.0032591222178812891</v>
+      </c>
+      <c r="F10">
+        <v>0.016224475156097162</v>
+      </c>
+      <c r="G10">
+        <v>0.086493075617509227</v>
+      </c>
+      <c r="H10">
+        <v>0.0033972183543643239</v>
+      </c>
+      <c r="I10">
+        <v>0.04428125450991998</v>
+      </c>
+      <c r="J10">
+        <v>0.0096822859330981011</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11">
+        <v>0.01593173715232098</v>
+      </c>
+      <c r="C11">
+        <v>0.60020036038971158</v>
+      </c>
+      <c r="D11">
+        <v>0.11520171255237448</v>
+      </c>
+      <c r="E11">
+        <v>0.033175301179405169</v>
+      </c>
+      <c r="F11">
+        <v>0.085899081538486077</v>
+      </c>
+      <c r="G11">
+        <v>0.13016483452690705</v>
+      </c>
+      <c r="H11">
+        <v>0.0028641787560186173</v>
+      </c>
+      <c r="I11">
+        <v>0.013645805785534234</v>
+      </c>
+      <c r="J11">
+        <v>0.0029169881192419988</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12">
+        <v>0.0068369599438067793</v>
+      </c>
+      <c r="C12">
+        <v>0.10913571721010416</v>
+      </c>
+      <c r="D12">
+        <v>0.53671873191021469</v>
+      </c>
+      <c r="E12">
+        <v>0.14443502148352214</v>
+      </c>
+      <c r="F12">
+        <v>0.026163361211132798</v>
+      </c>
+      <c r="G12">
+        <v>0.077816610316166754</v>
+      </c>
+      <c r="H12">
+        <v>0.0046134733687038859</v>
+      </c>
+      <c r="I12">
+        <v>0.088858641499469732</v>
+      </c>
+      <c r="J12">
+        <v>0.0054214830568789577</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B13">
+        <v>0.0028141031527892206</v>
+      </c>
+      <c r="C13">
+        <v>0.65314783472273308</v>
+      </c>
+      <c r="D13">
+        <v>0.094699506979954995</v>
+      </c>
+      <c r="E13">
+        <v>0.011559851945146221</v>
+      </c>
+      <c r="F13">
+        <v>0.0078477366557258999</v>
+      </c>
+      <c r="G13">
+        <v>0.10850707503273596</v>
+      </c>
+      <c r="H13">
+        <v>0.0036161110869146165</v>
+      </c>
+      <c r="I13">
+        <v>0.11597813235330526</v>
+      </c>
+      <c r="J13">
+        <v>0.0018296480706947776</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B14">
+        <v>0.0037274236638098995</v>
+      </c>
+      <c r="C14">
+        <v>0.47490045290551475</v>
+      </c>
+      <c r="D14">
+        <v>0.19106154807420392</v>
+      </c>
+      <c r="E14">
+        <v>0.015111900539360908</v>
+      </c>
+      <c r="F14">
+        <v>0.012625169143843736</v>
+      </c>
+      <c r="G14">
+        <v>0.15951401499715268</v>
+      </c>
+      <c r="H14">
+        <v>0.0036781444599223315</v>
+      </c>
+      <c r="I14">
+        <v>0.13729405047952184</v>
+      </c>
+      <c r="J14">
+        <v>0.0020872957366700009</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15">
+        <v>0.025964664968644552</v>
+      </c>
+      <c r="C15">
+        <v>0.31052411168345329</v>
+      </c>
+      <c r="D15">
+        <v>0.085327772355808476</v>
+      </c>
+      <c r="E15">
+        <v>0.11009099998195547</v>
+      </c>
+      <c r="F15">
+        <v>0.13436432255745881</v>
+      </c>
+      <c r="G15">
+        <v>0.14262231612212845</v>
+      </c>
+      <c r="H15">
+        <v>0.0068237813982984083</v>
+      </c>
+      <c r="I15">
+        <v>0.1182130646581723</v>
+      </c>
+      <c r="J15">
+        <v>0.066068966274080265</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16">
+        <v>0.0036808433426677389</v>
+      </c>
+      <c r="C16">
+        <v>0.68086993390256123</v>
+      </c>
+      <c r="D16">
+        <v>0.088539561426176319</v>
+      </c>
+      <c r="E16">
+        <v>0.017788065961927162</v>
+      </c>
+      <c r="F16">
+        <v>0.0088900210131617561</v>
+      </c>
+      <c r="G16">
+        <v>0.058905079338554357</v>
+      </c>
+      <c r="H16">
+        <v>0.0021659624444868792</v>
+      </c>
+      <c r="I16">
+        <v>0.13904010544725284</v>
+      </c>
+      <c r="J16">
+        <v>0.00012042712321174428</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17">
+        <v>0.0015367192370800396</v>
+      </c>
+      <c r="C17">
+        <v>0.020052989455629968</v>
+      </c>
+      <c r="D17">
+        <v>0.083538524856762636</v>
+      </c>
+      <c r="E17">
+        <v>0.078276554267131884</v>
+      </c>
+      <c r="F17">
+        <v>0.00076683666520155304</v>
+      </c>
+      <c r="G17">
+        <v>0.049572832894498431</v>
+      </c>
+      <c r="H17">
+        <v>0.0016520844823575309</v>
+      </c>
+      <c r="I17">
+        <v>0.76460340698054408</v>
+      </c>
+      <c r="J17">
+        <v>5.1160793894404033e-08</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B18">
+        <v>1.0575904197232305e-05</v>
+      </c>
+      <c r="C18">
+        <v>0.011278862863862907</v>
+      </c>
+      <c r="D18">
+        <v>0.052373485253823099</v>
+      </c>
+      <c r="E18">
+        <v>0.26307058164807956</v>
+      </c>
+      <c r="F18">
+        <v>5.7215131761270101e-05</v>
+      </c>
+      <c r="G18">
+        <v>0.13934080504440977</v>
+      </c>
+      <c r="H18">
+        <v>0.0046049700880614565</v>
+      </c>
+      <c r="I18">
+        <v>0.52926350364162866</v>
+      </c>
+      <c r="J18">
+        <v>4.2417601432412815e-10</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B19">
+        <v>0.015339794123338765</v>
+      </c>
+      <c r="C19">
+        <v>0.89778199239520418</v>
+      </c>
+      <c r="D19">
+        <v>0.0054642273610117104</v>
+      </c>
+      <c r="E19">
+        <v>0.0013173506385589634</v>
+      </c>
+      <c r="F19">
+        <v>0.00086755199066235775</v>
+      </c>
+      <c r="G19">
+        <v>0.02461874932674275</v>
+      </c>
+      <c r="H19">
+        <v>0.0022972140434794797</v>
+      </c>
+      <c r="I19">
+        <v>0.0020048318714513619</v>
+      </c>
+      <c r="J19">
+        <v>0.050308288249550477</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B20">
+        <v>0.043780135081285129</v>
+      </c>
+      <c r="C20">
+        <v>0.17550057437870201</v>
+      </c>
+      <c r="D20">
+        <v>0.23555191118050603</v>
+      </c>
+      <c r="E20">
+        <v>0.01811221531010572</v>
+      </c>
+      <c r="F20">
+        <v>0.10155241915295868</v>
+      </c>
+      <c r="G20">
+        <v>0.35705969740093046</v>
+      </c>
+      <c r="H20">
+        <v>0.049596587892261526</v>
+      </c>
+      <c r="I20">
+        <v>0.016905631140370466</v>
+      </c>
+      <c r="J20">
+        <v>0.0019408284628799721</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B21">
+        <v>0.0096615073142884873</v>
+      </c>
+      <c r="C21">
+        <v>0.059047911859948669</v>
+      </c>
+      <c r="D21">
+        <v>0.39152472240129343</v>
+      </c>
+      <c r="E21">
+        <v>0.1977556595511058</v>
+      </c>
+      <c r="F21">
+        <v>0.0024308566124029464</v>
+      </c>
+      <c r="G21">
+        <v>0.2942514029539075</v>
+      </c>
+      <c r="H21">
+        <v>0.0070303112851531104</v>
+      </c>
+      <c r="I21">
+        <v>0.038280241918088827</v>
+      </c>
+      <c r="J21">
+        <v>1.738610381133404e-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B22">
+        <v>0.0029444648861202765</v>
+      </c>
+      <c r="C22">
+        <v>0.029224194209127561</v>
+      </c>
+      <c r="D22">
+        <v>0.74669878986593496</v>
+      </c>
+      <c r="E22">
+        <v>0.071181911382583327</v>
+      </c>
+      <c r="F22">
+        <v>0.0090105194699319335</v>
+      </c>
+      <c r="G22">
+        <v>0.10479717822176843</v>
+      </c>
+      <c r="H22">
+        <v>0.0038643813710430726</v>
+      </c>
+      <c r="I22">
+        <v>0.03130738891285173</v>
+      </c>
+      <c r="J22">
+        <v>0.00097117168063862397</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B23">
+        <v>0.0035074912484770178</v>
+      </c>
+      <c r="C23">
+        <v>0.019490568963781266</v>
+      </c>
+      <c r="D23">
+        <v>0.81770269486313074</v>
+      </c>
+      <c r="E23">
+        <v>0.030887323785702955</v>
+      </c>
+      <c r="F23">
+        <v>0.012590680584253651</v>
+      </c>
+      <c r="G23">
+        <v>0.098767524558197387</v>
+      </c>
+      <c r="H23">
+        <v>0.0024858724580605453</v>
+      </c>
+      <c r="I23">
+        <v>0.013794823908716036</v>
+      </c>
+      <c r="J23">
+        <v>0.00077301962968031994</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B24">
+        <v>4.2276866914135753e-05</v>
+      </c>
+      <c r="C24">
+        <v>0.014473920034285933</v>
+      </c>
+      <c r="D24">
+        <v>0.27539286973525978</v>
+      </c>
+      <c r="E24">
+        <v>0.014022560581360562</v>
+      </c>
+      <c r="F24">
+        <v>2.8461087961937692e-05</v>
+      </c>
+      <c r="G24">
+        <v>0.0072227210472559566</v>
+      </c>
+      <c r="H24">
+        <v>0.00079335743338306767</v>
+      </c>
+      <c r="I24">
+        <v>0.68802380979319222</v>
+      </c>
+      <c r="J24">
+        <v>2.3420386389686128e-08</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B25">
+        <v>0.0028441740779178749</v>
+      </c>
+      <c r="C25">
+        <v>0.081272051225567535</v>
+      </c>
+      <c r="D25">
+        <v>0.71926885212226399</v>
+      </c>
+      <c r="E25">
+        <v>0.039856238824303017</v>
+      </c>
+      <c r="F25">
+        <v>0.0011425097443630108</v>
+      </c>
+      <c r="G25">
+        <v>0.11140849894240631</v>
+      </c>
+      <c r="H25">
+        <v>0.0013838788938449515</v>
+      </c>
+      <c r="I25">
+        <v>0.039434817864746237</v>
+      </c>
+      <c r="J25">
+        <v>0.0033889783045871922</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26">
+        <v>0.002517948346020908</v>
+      </c>
+      <c r="C26">
+        <v>0.037734803349143919</v>
+      </c>
+      <c r="D26">
+        <v>0.79499154665327187</v>
+      </c>
+      <c r="E26">
+        <v>0.059908034850080553</v>
+      </c>
+      <c r="F26">
+        <v>0.016273216213795655</v>
+      </c>
+      <c r="G26">
+        <v>0.065558905673476053</v>
+      </c>
+      <c r="H26">
+        <v>0.0031796432558409164</v>
+      </c>
+      <c r="I26">
+        <v>0.019023133317086792</v>
+      </c>
+      <c r="J26">
+        <v>0.00081276834128331547</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B27">
+        <v>0.0036616375297588094</v>
+      </c>
+      <c r="C27">
+        <v>0.023185998256790661</v>
+      </c>
+      <c r="D27">
+        <v>0.86617684506861492</v>
+      </c>
+      <c r="E27">
+        <v>0.041875075131019755</v>
+      </c>
+      <c r="F27">
+        <v>0.015735914228965357</v>
+      </c>
+      <c r="G27">
+        <v>0.034353087991673491</v>
+      </c>
+      <c r="H27">
+        <v>0.0055067424945712254</v>
+      </c>
+      <c r="I27">
+        <v>0.0073578439563496576</v>
+      </c>
+      <c r="J27">
+        <v>0.002146855342256108</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B28">
+        <v>0.030889992948928413</v>
+      </c>
+      <c r="C28">
+        <v>0.017020688994797226</v>
+      </c>
+      <c r="D28">
+        <v>0.47297640699623933</v>
+      </c>
+      <c r="E28">
+        <v>0.25101448404758231</v>
+      </c>
+      <c r="F28">
+        <v>0.0022391145855563729</v>
+      </c>
+      <c r="G28">
+        <v>0.091796939080851486</v>
+      </c>
+      <c r="H28">
+        <v>0.0056912268203998077</v>
+      </c>
+      <c r="I28">
+        <v>0.12832895338218872</v>
+      </c>
+      <c r="J28">
+        <v>4.2193143456391257e-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29">
+        <v>0.0060877205311322315</v>
+      </c>
+      <c r="C29">
+        <v>0.013839263159258606</v>
+      </c>
+      <c r="D29">
+        <v>0.24357055216793291</v>
+      </c>
+      <c r="E29">
+        <v>0.31173536741655694</v>
+      </c>
+      <c r="F29">
+        <v>0.0071461607357124314</v>
+      </c>
+      <c r="G29">
+        <v>0.36613295692016784</v>
+      </c>
+      <c r="H29">
+        <v>0.013310515928375236</v>
+      </c>
+      <c r="I29">
+        <v>0.038048209337345228</v>
+      </c>
+      <c r="J29">
+        <v>0.00012925380351866387</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B30">
+        <v>0.040786298428313737</v>
+      </c>
+      <c r="C30">
+        <v>1.8783978534480753e-05</v>
+      </c>
+      <c r="D30">
+        <v>0.70738730907690528</v>
+      </c>
+      <c r="E30">
+        <v>0.030232420968105408</v>
+      </c>
+      <c r="F30">
+        <v>3.0119804613002722e-06</v>
+      </c>
+      <c r="G30">
+        <v>0.0082218030131176525</v>
+      </c>
+      <c r="H30">
+        <v>0.030164628143118693</v>
+      </c>
+      <c r="I30">
+        <v>0.0025663612953805426</v>
+      </c>
+      <c r="J30">
+        <v>0.18061938311606313</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B31">
+        <v>0.079143484598379304</v>
+      </c>
+      <c r="C31">
+        <v>0.16799223133693619</v>
+      </c>
+      <c r="D31">
+        <v>0.1759664335826828</v>
+      </c>
+      <c r="E31">
+        <v>0.15548671328051969</v>
+      </c>
+      <c r="F31">
+        <v>4.8369842835198908e-05</v>
+      </c>
+      <c r="G31">
+        <v>0.10327614084516282</v>
+      </c>
+      <c r="H31">
+        <v>0.15132335959457496</v>
+      </c>
+      <c r="I31">
+        <v>0.16676326687658669</v>
+      </c>
+      <c r="J31">
+        <v>4.232247624773818e-11</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B32">
+        <v>0.00084215169418562735</v>
+      </c>
+      <c r="C32">
+        <v>0.00062227334278061098</v>
+      </c>
+      <c r="D32">
+        <v>0.70160433478511275</v>
+      </c>
+      <c r="E32">
+        <v>0.26856101056798398</v>
+      </c>
+      <c r="F32">
+        <v>3.4185370980075122e-05</v>
+      </c>
+      <c r="G32">
+        <v>0.018357472126858648</v>
+      </c>
+      <c r="H32">
+        <v>0.0075813573674560486</v>
+      </c>
+      <c r="I32">
+        <v>0.002219829359396611</v>
+      </c>
+      <c r="J32">
+        <v>0.00017738538524557037</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B33">
+        <v>0.10044202829632851</v>
+      </c>
+      <c r="C33">
+        <v>0.14236462766659919</v>
+      </c>
+      <c r="D33">
+        <v>0.42823192074759359</v>
+      </c>
+      <c r="E33">
+        <v>0.17416653164009074</v>
+      </c>
+      <c r="F33">
+        <v>9.0273505290677349e-05</v>
+      </c>
+      <c r="G33">
+        <v>0.090825700731547235</v>
+      </c>
+      <c r="H33">
+        <v>0.0036745268879260547</v>
+      </c>
+      <c r="I33">
+        <v>0.059139554310080361</v>
+      </c>
+      <c r="J33">
+        <v>0.001064836214543596</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B34">
+        <v>2.7142833864318248e-05</v>
+      </c>
+      <c r="C34">
+        <v>5.9447747810558223e-05</v>
+      </c>
+      <c r="D34">
+        <v>0.46182171393778326</v>
+      </c>
+      <c r="E34">
+        <v>0.0012163936455305121</v>
+      </c>
+      <c r="F34">
+        <v>1.8792146497676334e-06</v>
+      </c>
+      <c r="G34">
+        <v>3.0333108256188843e-05</v>
+      </c>
+      <c r="H34">
+        <v>0.15452356233103437</v>
+      </c>
+      <c r="I34">
+        <v>6.1156500245347087e-06</v>
+      </c>
+      <c r="J34">
+        <v>0.38231341153104653</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B35">
+        <v>0.0057792786709256611</v>
+      </c>
+      <c r="C35">
+        <v>0.026374035333960977</v>
+      </c>
+      <c r="D35">
+        <v>0.13846823169876579</v>
+      </c>
+      <c r="E35">
+        <v>0.088068032319819745</v>
+      </c>
+      <c r="F35">
+        <v>0.00014698866547468479</v>
+      </c>
+      <c r="G35">
+        <v>0.060144377107655383</v>
+      </c>
+      <c r="H35">
+        <v>0.00084153351664254905</v>
+      </c>
+      <c r="I35">
+        <v>0.68014480440918057</v>
+      </c>
+      <c r="J35">
+        <v>3.2718277574753426e-05</v>
+      </c>
+      <c r="K35">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B36">
+        <v>0.00025334759994285474</v>
+      </c>
+      <c r="C36">
+        <v>0.0059088813401402618</v>
+      </c>
+      <c r="D36">
+        <v>0.70579030074546756</v>
+      </c>
+      <c r="E36">
+        <v>0.0041787108187485572</v>
+      </c>
+      <c r="F36">
+        <v>0.0066052949751783151</v>
+      </c>
+      <c r="G36">
+        <v>0.26505834469811379</v>
+      </c>
+      <c r="H36">
+        <v>0.0027136544580498119</v>
+      </c>
+      <c r="I36">
+        <v>0.0094861250765429193</v>
+      </c>
+      <c r="J36">
+        <v>5.3402878158370361e-06</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B37">
+        <v>7.4428421908359733e-07</v>
+      </c>
+      <c r="C37">
+        <v>0.011047184687941653</v>
+      </c>
+      <c r="D37">
+        <v>0.20774015947465449</v>
+      </c>
+      <c r="E37">
+        <v>0.0011445979474428523</v>
+      </c>
+      <c r="F37">
+        <v>3.2169413666728169e-07</v>
+      </c>
+      <c r="G37">
+        <v>0.0002379504336610737</v>
+      </c>
+      <c r="H37">
+        <v>0.0019124595570906883</v>
+      </c>
+      <c r="I37">
+        <v>0.77791658192082924</v>
+      </c>
+      <c r="J37">
+        <v>2.4131657009559163e-14</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B38">
+        <v>5.8808669182165887e-05</v>
+      </c>
+      <c r="C38">
+        <v>3.2823791954929323e-05</v>
+      </c>
+      <c r="D38">
+        <v>0.93414228719948944</v>
+      </c>
+      <c r="E38">
+        <v>0.042844028358264646</v>
+      </c>
+      <c r="F38">
+        <v>6.9795347555432791e-06</v>
+      </c>
+      <c r="G38">
+        <v>0.010032936807300101</v>
+      </c>
+      <c r="H38">
+        <v>0.0010525207995749917</v>
+      </c>
+      <c r="I38">
+        <v>0.011823770317311848</v>
+      </c>
+      <c r="J38">
+        <v>5.8445221665011088e-06</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B39">
+        <v>7.617863301800771e-05</v>
+      </c>
+      <c r="C39">
+        <v>0.0030786529103164401</v>
+      </c>
+      <c r="D39">
+        <v>0.88675630811137163</v>
+      </c>
+      <c r="E39">
+        <v>0.010682488341729251</v>
+      </c>
+      <c r="F39">
+        <v>0.00028313947774589093</v>
+      </c>
+      <c r="G39">
+        <v>0.086696823667036321</v>
+      </c>
+      <c r="H39">
+        <v>0.0015203667178252016</v>
+      </c>
+      <c r="I39">
+        <v>0.010902064076443554</v>
+      </c>
+      <c r="J39">
+        <v>3.9780645136264804e-06</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B40">
+        <v>7.4189131675120572e-05</v>
+      </c>
+      <c r="C40">
+        <v>0.0048357364619946155</v>
+      </c>
+      <c r="D40">
+        <v>0.88718669156590169</v>
+      </c>
+      <c r="E40">
+        <v>0.012185768625257333</v>
+      </c>
+      <c r="F40">
+        <v>0.0097393562508513842</v>
+      </c>
+      <c r="G40">
+        <v>0.07595393138737043</v>
+      </c>
+      <c r="H40">
+        <v>0.0021635306224560089</v>
+      </c>
+      <c r="I40">
+        <v>0.0078466328157531118</v>
+      </c>
+      <c r="J40">
+        <v>1.41631387402935e-05</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B41">
+        <v>0.010462115063769315</v>
+      </c>
+      <c r="C41">
+        <v>0.024655255556298564</v>
+      </c>
+      <c r="D41">
+        <v>0.68175550526190343</v>
+      </c>
+      <c r="E41">
+        <v>0.034454971042454444</v>
+      </c>
+      <c r="F41">
+        <v>0.028209492861146546</v>
+      </c>
+      <c r="G41">
+        <v>0.19948125051873322</v>
+      </c>
+      <c r="H41">
+        <v>0.0035172061144531307</v>
+      </c>
+      <c r="I41">
+        <v>0.016803030373479029</v>
+      </c>
+      <c r="J41">
+        <v>0.00066117320776247967</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B42">
+        <v>0.00036157760037306672</v>
+      </c>
+      <c r="C42">
+        <v>0.032398869438130182</v>
+      </c>
+      <c r="D42">
+        <v>0.78987886454330003</v>
+      </c>
+      <c r="E42">
+        <v>0.031608969409715845</v>
+      </c>
+      <c r="F42">
+        <v>0.016621868401616648</v>
+      </c>
+      <c r="G42">
+        <v>0.096152872358814284</v>
+      </c>
+      <c r="H42">
+        <v>0.0029667775550982394</v>
+      </c>
+      <c r="I42">
+        <v>0.02994361016417265</v>
+      </c>
+      <c r="J42">
+        <v>6.6590528778899083e-05</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B43">
+        <v>0.010740672976270045</v>
+      </c>
+      <c r="C43">
+        <v>0.056368752494294599</v>
+      </c>
+      <c r="D43">
+        <v>0.55895913628302973</v>
+      </c>
+      <c r="E43">
+        <v>0.070336955913267982</v>
+      </c>
+      <c r="F43">
+        <v>0.078606017134057224</v>
+      </c>
+      <c r="G43">
+        <v>0.20422115427224322</v>
+      </c>
+      <c r="H43">
+        <v>0.0032475983334968768</v>
+      </c>
+      <c r="I43">
+        <v>0.016507714809137056</v>
+      </c>
+      <c r="J43">
+        <v>0.0010119977842032927</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B44">
+        <v>0.0011678744145451074</v>
+      </c>
+      <c r="C44">
+        <v>0.0039693957528888213</v>
+      </c>
+      <c r="D44">
+        <v>0.55703899391243228</v>
+      </c>
+      <c r="E44">
+        <v>0.35102647471556425</v>
+      </c>
+      <c r="F44">
+        <v>0.0046801956420629686</v>
+      </c>
+      <c r="G44">
+        <v>0.057004335458757084</v>
+      </c>
+      <c r="H44">
+        <v>0.0020866626839165453</v>
+      </c>
+      <c r="I44">
+        <v>0.022697285110048062</v>
+      </c>
+      <c r="J44">
+        <v>0.00032878230978488596</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B45">
+        <v>0.0031454157165921128</v>
+      </c>
+      <c r="C45">
+        <v>0.013324729531860107</v>
+      </c>
+      <c r="D45">
+        <v>0.017524624128725543</v>
+      </c>
+      <c r="E45">
+        <v>0.0082818544105331907</v>
+      </c>
+      <c r="F45">
+        <v>0.004977087062179102</v>
+      </c>
+      <c r="G45">
+        <v>0.038362293431979666</v>
+      </c>
+      <c r="H45">
+        <v>0.00063710333027002485</v>
+      </c>
+      <c r="I45">
+        <v>0.91374090684693321</v>
+      </c>
+      <c r="J45">
+        <v>5.9855409270191375e-06</v>
+      </c>
+      <c r="K45">
+        <v>8</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B46">
+        <v>0.0059979245221560709</v>
+      </c>
+      <c r="C46">
+        <v>0.010139233091285669</v>
+      </c>
+      <c r="D46">
+        <v>0.72514672695463511</v>
+      </c>
+      <c r="E46">
+        <v>0.086931575676714334</v>
+      </c>
+      <c r="F46">
+        <v>0.0076412699670620528</v>
+      </c>
+      <c r="G46">
+        <v>0.13307606507723743</v>
+      </c>
+      <c r="H46">
+        <v>0.0025883350962234131</v>
+      </c>
+      <c r="I46">
+        <v>0.027971402714879474</v>
+      </c>
+      <c r="J46">
+        <v>0.00050746689980643665</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B47">
+        <v>0.0011374114883340555</v>
+      </c>
+      <c r="C47">
+        <v>0.052831433820873061</v>
+      </c>
+      <c r="D47">
+        <v>0.79636252091327708</v>
+      </c>
+      <c r="E47">
+        <v>0.055480662268803507</v>
+      </c>
+      <c r="F47">
+        <v>0.013813496517445532</v>
+      </c>
+      <c r="G47">
+        <v>0.033885699536169336</v>
+      </c>
+      <c r="H47">
+        <v>0.0016368522829496533</v>
+      </c>
+      <c r="I47">
+        <v>0.042919038457219769</v>
+      </c>
+      <c r="J47">
+        <v>0.0019328847149280705</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B48">
+        <v>0.0075540880209304098</v>
+      </c>
+      <c r="C48">
+        <v>0.052671967966340862</v>
+      </c>
+      <c r="D48">
+        <v>0.59489817607131801</v>
+      </c>
+      <c r="E48">
+        <v>0.036515993931142382</v>
+      </c>
+      <c r="F48">
+        <v>0.014307098028120316</v>
+      </c>
+      <c r="G48">
+        <v>0.25821857348821203</v>
+      </c>
+      <c r="H48">
+        <v>0.010182791789375936</v>
+      </c>
+      <c r="I48">
+        <v>0.025635681185558035</v>
+      </c>
+      <c r="J48">
+        <v>1.5629519002081531e-05</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B49">
+        <v>0.0088620085250594866</v>
+      </c>
+      <c r="C49">
+        <v>0.37248904354665002</v>
+      </c>
+      <c r="D49">
+        <v>0.30312060254673617</v>
+      </c>
+      <c r="E49">
+        <v>0.026565450338582011</v>
+      </c>
+      <c r="F49">
+        <v>0.039689540875683542</v>
+      </c>
+      <c r="G49">
+        <v>0.16169024655877856</v>
+      </c>
+      <c r="H49">
+        <v>0.003190648292054064</v>
+      </c>
+      <c r="I49">
+        <v>0.08318886630628361</v>
+      </c>
+      <c r="J49">
+        <v>0.0012035930101724096</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B50">
+        <v>0.0011682941882867049</v>
+      </c>
+      <c r="C50">
+        <v>0.019967369139916643</v>
+      </c>
+      <c r="D50">
+        <v>0.71247611255888277</v>
+      </c>
+      <c r="E50">
+        <v>0.17416006181413698</v>
+      </c>
+      <c r="F50">
+        <v>0.014968474839197372</v>
+      </c>
+      <c r="G50">
+        <v>0.055244532018628605</v>
+      </c>
+      <c r="H50">
+        <v>0.0021852200473671678</v>
+      </c>
+      <c r="I50">
+        <v>0.018456275888042419</v>
+      </c>
+      <c r="J50">
+        <v>0.0013736595055413633</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B51">
+        <v>0.020758567846521948</v>
+      </c>
+      <c r="C51">
+        <v>0.11633466680777642</v>
+      </c>
+      <c r="D51">
+        <v>0.16058767368713239</v>
+      </c>
+      <c r="E51">
+        <v>0.17743907618404858</v>
+      </c>
+      <c r="F51">
+        <v>0.14744732596386551</v>
+      </c>
+      <c r="G51">
+        <v>0.1750516033268813</v>
+      </c>
+      <c r="H51">
+        <v>0.09835900469355062</v>
+      </c>
+      <c r="I51">
+        <v>0.10395774154424683</v>
+      </c>
+      <c r="J51">
+        <v>6.4339945976546914e-05</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B52">
+        <v>2.29382391377536e-07</v>
+      </c>
+      <c r="C52">
+        <v>0.0014351755028538097</v>
+      </c>
+      <c r="D52">
+        <v>0.0065490308644874217</v>
+      </c>
+      <c r="E52">
+        <v>0.94831424019043908</v>
+      </c>
+      <c r="F52">
+        <v>4.0595114921273713e-06</v>
+      </c>
+      <c r="G52">
+        <v>0.025952804380244648</v>
+      </c>
+      <c r="H52">
+        <v>0.017480291647230344</v>
+      </c>
+      <c r="I52">
+        <v>0.00026414350599375199</v>
+      </c>
+      <c r="J52">
+        <v>2.5014867611492821e-08</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B53">
+        <v>0.0011784789606090491</v>
+      </c>
+      <c r="C53">
+        <v>0.0017736389865150139</v>
+      </c>
+      <c r="D53">
+        <v>0.24866031184504223</v>
+      </c>
+      <c r="E53">
+        <v>0.7221512950260387</v>
+      </c>
+      <c r="F53">
+        <v>0.0024872805530853268</v>
+      </c>
+      <c r="G53">
+        <v>0.018486687315915715</v>
+      </c>
+      <c r="H53">
+        <v>0.0013599955866036172</v>
+      </c>
+      <c r="I53">
+        <v>0.0038752939583886932</v>
+      </c>
+      <c r="J53">
+        <v>2.7017767801559442e-05</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B54">
+        <v>0.010827223398977213</v>
+      </c>
+      <c r="C54">
+        <v>0.012746004667813299</v>
+      </c>
+      <c r="D54">
+        <v>0.15509944597033054</v>
+      </c>
+      <c r="E54">
+        <v>0.72991540693578949</v>
+      </c>
+      <c r="F54">
+        <v>0.021843630276911347</v>
+      </c>
+      <c r="G54">
+        <v>0.059310919511197227</v>
+      </c>
+      <c r="H54">
+        <v>0.0014176263544563878</v>
+      </c>
+      <c r="I54">
+        <v>0.0032624060916987981</v>
+      </c>
+      <c r="J54">
+        <v>0.0055773367928258107</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B55">
+        <v>0.0057514785481674125</v>
+      </c>
+      <c r="C55">
+        <v>0.016947674054919152</v>
+      </c>
+      <c r="D55">
+        <v>0.034765175619127592</v>
+      </c>
+      <c r="E55">
+        <v>0.80253893517040165</v>
+      </c>
+      <c r="F55">
+        <v>0.046732549187859788</v>
+      </c>
+      <c r="G55">
+        <v>0.075543441136749601</v>
+      </c>
+      <c r="H55">
+        <v>0.0018410654594544029</v>
+      </c>
+      <c r="I55">
+        <v>0.015294063257325628</v>
+      </c>
+      <c r="J55">
+        <v>0.00058561756599475896</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B56">
+        <v>0.042894159645819704</v>
+      </c>
+      <c r="C56">
+        <v>0.38757762475151558</v>
+      </c>
+      <c r="D56">
+        <v>0.22883752884415071</v>
+      </c>
+      <c r="E56">
+        <v>0.17963872120407012</v>
+      </c>
+      <c r="F56">
+        <v>0.039569287739451273</v>
+      </c>
+      <c r="G56">
+        <v>0.090221962443756104</v>
+      </c>
+      <c r="H56">
+        <v>0.0024773246147518965</v>
+      </c>
+      <c r="I56">
+        <v>0.020611301274135609</v>
+      </c>
+      <c r="J56">
+        <v>0.0081720894823489442</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B57">
+        <v>0.00089253362208776296</v>
+      </c>
+      <c r="C57">
+        <v>0.0013047431532341436</v>
+      </c>
+      <c r="D57">
+        <v>0.039334051042204256</v>
+      </c>
+      <c r="E57">
+        <v>0.92834354367429994</v>
+      </c>
+      <c r="F57">
+        <v>0.0012533057863703492</v>
+      </c>
+      <c r="G57">
+        <v>0.019074195013983674</v>
+      </c>
+      <c r="H57">
+        <v>0.00076125829552658813</v>
+      </c>
+      <c r="I57">
+        <v>0.0089789871225048699</v>
+      </c>
+      <c r="J57">
+        <v>5.738228978846164e-05</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B58">
+        <v>0.006142236654442094</v>
+      </c>
+      <c r="C58">
+        <v>0.0087885892374248761</v>
+      </c>
+      <c r="D58">
+        <v>0.0686072806468878</v>
+      </c>
+      <c r="E58">
+        <v>0.87750196303934613</v>
+      </c>
+      <c r="F58">
+        <v>0.0031462463100145944</v>
+      </c>
+      <c r="G58">
+        <v>0.023495754953355024</v>
+      </c>
+      <c r="H58">
+        <v>0.00083586205477322842</v>
+      </c>
+      <c r="I58">
+        <v>0.011323522572141224</v>
+      </c>
+      <c r="J58">
+        <v>0.00015854453161509165</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B59">
+        <v>0.007249389498378651</v>
+      </c>
+      <c r="C59">
+        <v>0.0058050187627196334</v>
+      </c>
+      <c r="D59">
+        <v>0.30183546667356953</v>
+      </c>
+      <c r="E59">
+        <v>0.61039118861723796</v>
+      </c>
+      <c r="F59">
+        <v>0.01700523845957819</v>
+      </c>
+      <c r="G59">
+        <v>0.049750406253202699</v>
+      </c>
+      <c r="H59">
+        <v>0.0014973286085595869</v>
+      </c>
+      <c r="I59">
+        <v>0.0062820903783176174</v>
+      </c>
+      <c r="J59">
+        <v>0.00018387274843595131</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B60">
+        <v>0.0036199900306404542</v>
+      </c>
+      <c r="C60">
+        <v>0.0013569639245301045</v>
+      </c>
+      <c r="D60">
+        <v>0.019397828284196304</v>
+      </c>
+      <c r="E60">
+        <v>0.94971657903531326</v>
+      </c>
+      <c r="F60">
+        <v>0.00010638214984040325</v>
+      </c>
+      <c r="G60">
+        <v>0.016510062270137373</v>
+      </c>
+      <c r="H60">
+        <v>0.0011297698075349589</v>
+      </c>
+      <c r="I60">
+        <v>0.0081598554370954472</v>
+      </c>
+      <c r="J60">
+        <v>2.5690607118195853e-06</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B61">
+        <v>0.0083470865777190654</v>
+      </c>
+      <c r="C61">
+        <v>0.0020369420100734737</v>
+      </c>
+      <c r="D61">
+        <v>0.18110492392564462</v>
+      </c>
+      <c r="E61">
+        <v>0.74958760732903651</v>
+      </c>
+      <c r="F61">
+        <v>0.0033441084994572999</v>
+      </c>
+      <c r="G61">
+        <v>0.044309610291784256</v>
+      </c>
+      <c r="H61">
+        <v>0.0013646139290350262</v>
+      </c>
+      <c r="I61">
+        <v>0.0098052992756327163</v>
+      </c>
+      <c r="J61">
+        <v>9.9808161617013003e-05</v>
+      </c>
+      <c r="K61">
+        <v>4</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B62">
+        <v>3.5261161693000137e-06</v>
+      </c>
+      <c r="C62">
+        <v>4.1309369981826006e-05</v>
+      </c>
+      <c r="D62">
+        <v>0.026640018389173202</v>
+      </c>
+      <c r="E62">
+        <v>0.9654466945586534</v>
+      </c>
+      <c r="F62">
+        <v>5.6561259065477969e-05</v>
+      </c>
+      <c r="G62">
+        <v>0.0025919058875834415</v>
+      </c>
+      <c r="H62">
+        <v>0.0030834989413723066</v>
+      </c>
+      <c r="I62">
+        <v>0.0021066025310549027</v>
+      </c>
+      <c r="J62">
+        <v>2.9882946946116656e-05</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B63">
+        <v>0.00046292193983529637</v>
+      </c>
+      <c r="C63">
+        <v>0.00034463999570478424</v>
+      </c>
+      <c r="D63">
+        <v>0.18427003519019089</v>
+      </c>
+      <c r="E63">
+        <v>0.77574606697441029</v>
+      </c>
+      <c r="F63">
+        <v>0.00048312296675664056</v>
+      </c>
+      <c r="G63">
+        <v>0.028278921994105824</v>
+      </c>
+      <c r="H63">
+        <v>0.0010275074110383698</v>
+      </c>
+      <c r="I63">
+        <v>0.0093217916892797612</v>
+      </c>
+      <c r="J63">
+        <v>6.4991838678134009e-05</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B64">
+        <v>0.011637829384710916</v>
+      </c>
+      <c r="C64">
+        <v>0.016546354668545604</v>
+      </c>
+      <c r="D64">
+        <v>0.12465793911050137</v>
+      </c>
+      <c r="E64">
+        <v>0.70639459540633731</v>
+      </c>
+      <c r="F64">
+        <v>0.060892114954209049</v>
+      </c>
+      <c r="G64">
+        <v>0.070888148674182458</v>
+      </c>
+      <c r="H64">
+        <v>0.0014973857063863866</v>
+      </c>
+      <c r="I64">
+        <v>0.0067609501829630474</v>
+      </c>
+      <c r="J64">
+        <v>0.00072468191216387094</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B65">
+        <v>0.0077402543573477367</v>
+      </c>
+      <c r="C65">
+        <v>0.0081420272690547989</v>
+      </c>
+      <c r="D65">
+        <v>0.27103398244498428</v>
+      </c>
+      <c r="E65">
+        <v>0.53702018451885769</v>
+      </c>
+      <c r="F65">
+        <v>0.037144475941379006</v>
+      </c>
+      <c r="G65">
+        <v>0.099940580671392054</v>
+      </c>
+      <c r="H65">
+        <v>0.0025732559331481208</v>
+      </c>
+      <c r="I65">
+        <v>0.03560162871940125</v>
+      </c>
+      <c r="J65">
+        <v>0.00080361014443500482</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B66">
+        <v>0.00083269151993362175</v>
+      </c>
+      <c r="C66">
+        <v>0.00042616511089044434</v>
+      </c>
+      <c r="D66">
+        <v>0.0056512121904495694</v>
+      </c>
+      <c r="E66">
+        <v>0.95688125970377902</v>
+      </c>
+      <c r="F66">
+        <v>0.00016754856596249917</v>
+      </c>
+      <c r="G66">
+        <v>0.010482386442516253</v>
+      </c>
+      <c r="H66">
+        <v>0.00060429454513581974</v>
+      </c>
+      <c r="I66">
+        <v>0.02493545745240431</v>
+      </c>
+      <c r="J66">
+        <v>1.8984468928431699e-05</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B67">
+        <v>0.00010853490802276423</v>
+      </c>
+      <c r="C67">
+        <v>0.0023108723436520424</v>
+      </c>
+      <c r="D67">
+        <v>0.018310739535220426</v>
+      </c>
+      <c r="E67">
+        <v>0.93928284084632963</v>
+      </c>
+      <c r="F67">
+        <v>0.00044897489651536752</v>
+      </c>
+      <c r="G67">
+        <v>0.025154779891459814</v>
+      </c>
+      <c r="H67">
+        <v>0.00073761948681214085</v>
+      </c>
+      <c r="I67">
+        <v>0.01354609542814438</v>
+      </c>
+      <c r="J67">
+        <v>9.9542663843431726e-05</v>
+      </c>
+      <c r="K67">
+        <v>4</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B68">
+        <v>0.00033347309185249678</v>
+      </c>
+      <c r="C68">
+        <v>0.018670370899245156</v>
+      </c>
+      <c r="D68">
+        <v>0.48282453686276194</v>
+      </c>
+      <c r="E68">
+        <v>0.43272402455483322</v>
+      </c>
+      <c r="F68">
+        <v>0.010114010977502613</v>
+      </c>
+      <c r="G68">
+        <v>0.031406525340853114</v>
+      </c>
+      <c r="H68">
+        <v>0.0018341346853090988</v>
+      </c>
+      <c r="I68">
+        <v>0.021752151098817479</v>
+      </c>
+      <c r="J68">
+        <v>0.0003407724888249009</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B69">
+        <v>0.0010725964497324671</v>
+      </c>
+      <c r="C69">
+        <v>0.018121643751959331</v>
+      </c>
+      <c r="D69">
+        <v>0.31089883072068031</v>
+      </c>
+      <c r="E69">
+        <v>0.57977095493972153</v>
+      </c>
+      <c r="F69">
+        <v>0.0074250918495745305</v>
+      </c>
+      <c r="G69">
+        <v>0.070629705497256876</v>
+      </c>
+      <c r="H69">
+        <v>0.0017097206549186092</v>
+      </c>
+      <c r="I69">
+        <v>0.010202634568615703</v>
+      </c>
+      <c r="J69">
+        <v>0.00016882156754058331</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B70">
+        <v>0.00017538452117969432</v>
+      </c>
+      <c r="C70">
+        <v>0.0070948874247306164</v>
+      </c>
+      <c r="D70">
+        <v>0.09990222482679037</v>
+      </c>
+      <c r="E70">
+        <v>0.79975178096108068</v>
+      </c>
+      <c r="F70">
+        <v>0.012625268281714617</v>
+      </c>
+      <c r="G70">
+        <v>0.070253608357810471</v>
+      </c>
+      <c r="H70">
+        <v>0.0025150207243805093</v>
+      </c>
+      <c r="I70">
+        <v>0.0076644164116080162</v>
+      </c>
+      <c r="J70">
+        <v>1.7408490705053871e-05</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B71">
+        <v>0.0010130097142755517</v>
+      </c>
+      <c r="C71">
+        <v>0.073818583967208168</v>
+      </c>
+      <c r="D71">
+        <v>0.23782389502297893</v>
+      </c>
+      <c r="E71">
+        <v>0.073515893812660743</v>
+      </c>
+      <c r="F71">
+        <v>0.00074549194165990569</v>
+      </c>
+      <c r="G71">
+        <v>0.089354397659121537</v>
+      </c>
+      <c r="H71">
+        <v>0.00042740362088577126</v>
+      </c>
+      <c r="I71">
+        <v>0.52328020404954689</v>
+      </c>
+      <c r="J71">
+        <v>2.1120211662588164e-05</v>
+      </c>
+      <c r="K71">
+        <v>8</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B72">
+        <v>8.9770734479216964e-05</v>
+      </c>
+      <c r="C72">
+        <v>0.0032293779224598909</v>
+      </c>
+      <c r="D72">
+        <v>0.010691588022500569</v>
+      </c>
+      <c r="E72">
+        <v>0.34806897352099381</v>
+      </c>
+      <c r="F72">
+        <v>8.7550263417428699e-10</v>
+      </c>
+      <c r="G72">
+        <v>0.0018058793269122861</v>
+      </c>
+      <c r="H72">
+        <v>0.00028535710097989347</v>
+      </c>
+      <c r="I72">
+        <v>0.63582905249614952</v>
+      </c>
+      <c r="J72">
+        <v>2.2288985629842443e-14</v>
+      </c>
+      <c r="K72">
+        <v>8</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B73">
+        <v>0.14156605042871681</v>
+      </c>
+      <c r="C73">
+        <v>0.010883981779194826</v>
+      </c>
+      <c r="D73">
+        <v>0.013858489529741769</v>
+      </c>
+      <c r="E73">
+        <v>0.057655565147883378</v>
+      </c>
+      <c r="F73">
+        <v>0.55881710249959882</v>
+      </c>
+      <c r="G73">
+        <v>0.19912525911309764</v>
+      </c>
+      <c r="H73">
+        <v>0.0095217302615915617</v>
+      </c>
+      <c r="I73">
+        <v>0.0013491078711308114</v>
+      </c>
+      <c r="J73">
+        <v>0.007222713369044541</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B74">
+        <v>0.0084600911525651093</v>
+      </c>
+      <c r="C74">
+        <v>0.023839768817742784</v>
+      </c>
+      <c r="D74">
+        <v>0.29621615129897383</v>
+      </c>
+      <c r="E74">
+        <v>0.45208607797705164</v>
+      </c>
+      <c r="F74">
+        <v>0.099800833219170659</v>
+      </c>
+      <c r="G74">
+        <v>0.069880735479594031</v>
+      </c>
+      <c r="H74">
+        <v>0.0064385113872776917</v>
+      </c>
+      <c r="I74">
+        <v>0.039109143285099852</v>
+      </c>
+      <c r="J74">
+        <v>0.0041686873825243324</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B75">
+        <v>0.031994525933913824</v>
+      </c>
+      <c r="C75">
+        <v>0.25424174849183317</v>
+      </c>
+      <c r="D75">
+        <v>0.13933674737095811</v>
+      </c>
+      <c r="E75">
+        <v>0.12146259467651899</v>
+      </c>
+      <c r="F75">
+        <v>0.092223658866901703</v>
+      </c>
+      <c r="G75">
+        <v>0.11025853083740168</v>
+      </c>
+      <c r="H75">
+        <v>0.0050449760927677827</v>
+      </c>
+      <c r="I75">
+        <v>0.23668824403190791</v>
+      </c>
+      <c r="J75">
+        <v>0.0087489736977968413</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B76">
+        <v>0.067404520834013257</v>
+      </c>
+      <c r="C76">
+        <v>0.047886370167273026</v>
+      </c>
+      <c r="D76">
+        <v>0.028845257351215819</v>
+      </c>
+      <c r="E76">
+        <v>0.038187309857354017</v>
+      </c>
+      <c r="F76">
+        <v>0.57749838938601605</v>
+      </c>
+      <c r="G76">
+        <v>0.21375763211509205</v>
+      </c>
+      <c r="H76">
+        <v>0.016956179574206566</v>
+      </c>
+      <c r="I76">
+        <v>0.0024045971180320139</v>
+      </c>
+      <c r="J76">
+        <v>0.0070597435967968934</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B77">
+        <v>0.0019920587236456904</v>
+      </c>
+      <c r="C77">
+        <v>0.038102773083467177</v>
+      </c>
+      <c r="D77">
+        <v>0.31246461885621629</v>
+      </c>
+      <c r="E77">
+        <v>0.015787084901963143</v>
+      </c>
+      <c r="F77">
+        <v>0.023076836139159604</v>
+      </c>
+      <c r="G77">
+        <v>0.5523769155884688</v>
+      </c>
+      <c r="H77">
+        <v>0.041756645186509414</v>
+      </c>
+      <c r="I77">
+        <v>0.014278738306194839</v>
+      </c>
+      <c r="J77">
+        <v>0.00016432921437507399</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+      <c r="L77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B78">
+        <v>0.035871442065161671</v>
+      </c>
+      <c r="C78">
+        <v>0.1495422202341799</v>
+      </c>
+      <c r="D78">
+        <v>0.24094203743933587</v>
+      </c>
+      <c r="E78">
+        <v>0.012954044634270419</v>
+      </c>
+      <c r="F78">
+        <v>0.15307385032732834</v>
+      </c>
+      <c r="G78">
+        <v>0.37181010872107684</v>
+      </c>
+      <c r="H78">
+        <v>0.025177810760551814</v>
+      </c>
+      <c r="I78">
+        <v>0.0051929691512210274</v>
+      </c>
+      <c r="J78">
+        <v>0.0054355166668741952</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+      <c r="L78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B79">
+        <v>0.0031287811788649838</v>
+      </c>
+      <c r="C79">
+        <v>0.025899818215024371</v>
+      </c>
+      <c r="D79">
+        <v>0.78357917497225482</v>
+      </c>
+      <c r="E79">
+        <v>0.016533203829480116</v>
+      </c>
+      <c r="F79">
+        <v>0.027181507817531345</v>
+      </c>
+      <c r="G79">
+        <v>0.13041512612496503</v>
+      </c>
+      <c r="H79">
+        <v>0.0031934855961552725</v>
+      </c>
+      <c r="I79">
+        <v>0.010059086016873805</v>
+      </c>
+      <c r="J79">
+        <v>9.8162488502703247e-06</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B80">
+        <v>9.3960344275068565e-05</v>
+      </c>
+      <c r="C80">
+        <v>0.021897023791686693</v>
+      </c>
+      <c r="D80">
+        <v>0.62065106550964089</v>
+      </c>
+      <c r="E80">
+        <v>0.027848608930784811</v>
+      </c>
+      <c r="F80">
+        <v>0.044244396052695374</v>
+      </c>
+      <c r="G80">
+        <v>0.24837058138835491</v>
+      </c>
+      <c r="H80">
+        <v>0.0078983885728326469</v>
+      </c>
+      <c r="I80">
+        <v>0.028993036553942649</v>
+      </c>
+      <c r="J80">
+        <v>2.9388557871383118e-06</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B81">
+        <v>0.0012287468498196376</v>
+      </c>
+      <c r="C81">
+        <v>0.011204313034558483</v>
+      </c>
+      <c r="D81">
+        <v>0.65246320682554848</v>
+      </c>
+      <c r="E81">
+        <v>0.16322430607162253</v>
+      </c>
+      <c r="F81">
+        <v>0.003354916186512626</v>
+      </c>
+      <c r="G81">
+        <v>0.12168015502246676</v>
+      </c>
+      <c r="H81">
+        <v>0.0054103546779078939</v>
+      </c>
+      <c r="I81">
+        <v>0.041385363410783638</v>
+      </c>
+      <c r="J81">
+        <v>4.8637920780179326e-05</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B82">
+        <v>0.00051635555427520074</v>
+      </c>
+      <c r="C82">
+        <v>0.0062100809411731166</v>
+      </c>
+      <c r="D82">
+        <v>0.6966605154629214</v>
+      </c>
+      <c r="E82">
+        <v>0.035558181157097329</v>
+      </c>
+      <c r="F82">
+        <v>0.013170320810252108</v>
+      </c>
+      <c r="G82">
+        <v>0.21037874517370925</v>
+      </c>
+      <c r="H82">
+        <v>0.0045034050440986174</v>
+      </c>
+      <c r="I82">
+        <v>0.032947730663177556</v>
+      </c>
+      <c r="J82">
+        <v>5.4665193295582468e-05</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B83">
+        <v>0.0036879755502392917</v>
+      </c>
+      <c r="C83">
+        <v>0.04021182548699434</v>
+      </c>
+      <c r="D83">
+        <v>0.66085220325341409</v>
+      </c>
+      <c r="E83">
+        <v>0.033567525367315061</v>
+      </c>
+      <c r="F83">
+        <v>0.043230244319409764</v>
+      </c>
+      <c r="G83">
+        <v>0.19962512167056798</v>
+      </c>
+      <c r="H83">
+        <v>0.0031185469027227297</v>
+      </c>
+      <c r="I83">
+        <v>0.015450068404017922</v>
+      </c>
+      <c r="J83">
+        <v>0.00025648904531863989</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B84">
+        <v>0.0028465326177590524</v>
+      </c>
+      <c r="C84">
+        <v>0.014966898016471983</v>
+      </c>
+      <c r="D84">
+        <v>0.8647770853014709</v>
+      </c>
+      <c r="E84">
+        <v>0.024634219194099478</v>
+      </c>
+      <c r="F84">
+        <v>0.0057797583982185175</v>
+      </c>
+      <c r="G84">
+        <v>0.060710505656968984</v>
+      </c>
+      <c r="H84">
+        <v>0.003791701829076117</v>
+      </c>
+      <c r="I84">
+        <v>0.018753986937949076</v>
+      </c>
+      <c r="J84">
+        <v>0.003739312047985781</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B85">
+        <v>0.012420292170936997</v>
+      </c>
+      <c r="C85">
+        <v>0.012963392462544285</v>
+      </c>
+      <c r="D85">
+        <v>0.0033878058720004734</v>
+      </c>
+      <c r="E85">
+        <v>0.0056091667020038436</v>
+      </c>
+      <c r="F85">
+        <v>0.0011396677947838609</v>
+      </c>
+      <c r="G85">
+        <v>0.075409854401953247</v>
+      </c>
+      <c r="H85">
+        <v>0.25488033296466833</v>
+      </c>
+      <c r="I85">
+        <v>0.58445273632487471</v>
+      </c>
+      <c r="J85">
+        <v>0.049736751306234152</v>
+      </c>
+      <c r="K85">
+        <v>8</v>
+      </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B86">
+        <v>0.0047245306726598282</v>
+      </c>
+      <c r="C86">
+        <v>0.018566573392724023</v>
+      </c>
+      <c r="D86">
+        <v>0.0088576623938110954</v>
+      </c>
+      <c r="E86">
+        <v>0.0049183926939911117</v>
+      </c>
+      <c r="F86">
+        <v>0.0025219191441413656</v>
+      </c>
+      <c r="G86">
+        <v>0.077552280129427345</v>
+      </c>
+      <c r="H86">
+        <v>0.14864906476738171</v>
+      </c>
+      <c r="I86">
+        <v>0.70908706288720313</v>
+      </c>
+      <c r="J86">
+        <v>0.025122513918660425</v>
+      </c>
+      <c r="K86">
+        <v>8</v>
+      </c>
+      <c r="L86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B87">
+        <v>0.00064625107098503787</v>
+      </c>
+      <c r="C87">
+        <v>0.0044560011450031859</v>
+      </c>
+      <c r="D87">
+        <v>0.013716716758095862</v>
+      </c>
+      <c r="E87">
+        <v>0.022537815241353957</v>
+      </c>
+      <c r="F87">
+        <v>0.00048296945561017055</v>
+      </c>
+      <c r="G87">
+        <v>0.0088823198716376263</v>
+      </c>
+      <c r="H87">
+        <v>0.00023954968959734836</v>
+      </c>
+      <c r="I87">
+        <v>0.94903699018862986</v>
+      </c>
+      <c r="J87">
+        <v>1.3865790868349032e-06</v>
+      </c>
+      <c r="K87">
+        <v>8</v>
+      </c>
+      <c r="L87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B88">
+        <v>0.0079327180094201141</v>
+      </c>
+      <c r="C88">
+        <v>0.038955790880827436</v>
+      </c>
+      <c r="D88">
+        <v>0.11578426300550117</v>
+      </c>
+      <c r="E88">
+        <v>0.022121796146015522</v>
+      </c>
+      <c r="F88">
+        <v>0.0019997060061060609</v>
+      </c>
+      <c r="G88">
+        <v>0.042691314774756767</v>
+      </c>
+      <c r="H88">
+        <v>0.00083502583431458723</v>
+      </c>
+      <c r="I88">
+        <v>0.76956808772399066</v>
+      </c>
+      <c r="J88">
+        <v>0.00011129761906772745</v>
+      </c>
+      <c r="K88">
+        <v>8</v>
+      </c>
+      <c r="L88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B89">
+        <v>0.00034566052928491843</v>
+      </c>
+      <c r="C89">
+        <v>0.0029503382699716074</v>
+      </c>
+      <c r="D89">
+        <v>0.021628765878372973</v>
+      </c>
+      <c r="E89">
+        <v>0.0050809801384340391</v>
+      </c>
+      <c r="F89">
+        <v>8.8185729250672853e-05</v>
+      </c>
+      <c r="G89">
+        <v>0.014197777904854922</v>
+      </c>
+      <c r="H89">
+        <v>0.00020627031301310184</v>
+      </c>
+      <c r="I89">
+        <v>0.95550072475736636</v>
+      </c>
+      <c r="J89">
+        <v>1.2964794514480549e-06</v>
+      </c>
+      <c r="K89">
+        <v>8</v>
+      </c>
+      <c r="L89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B90">
+        <v>0.00087409250221255326</v>
+      </c>
+      <c r="C90">
+        <v>0.023603586958340601</v>
+      </c>
+      <c r="D90">
+        <v>0.029003939972135559</v>
+      </c>
+      <c r="E90">
+        <v>0.021930123924780456</v>
+      </c>
+      <c r="F90">
+        <v>0.0019153696306277001</v>
+      </c>
+      <c r="G90">
+        <v>0.033041602946478774</v>
+      </c>
+      <c r="H90">
+        <v>0.00039371579459447181</v>
+      </c>
+      <c r="I90">
+        <v>0.88923528773382998</v>
+      </c>
+      <c r="J90">
+        <v>2.2805369999155296e-06</v>
+      </c>
+      <c r="K90">
+        <v>8</v>
+      </c>
+      <c r="L90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B91">
+        <v>0.0019732272358475452</v>
+      </c>
+      <c r="C91">
+        <v>0.009663187401509378</v>
+      </c>
+      <c r="D91">
+        <v>0.046600266695460621</v>
+      </c>
+      <c r="E91">
+        <v>0.0098559621954989463</v>
+      </c>
+      <c r="F91">
+        <v>0.0059737735522922223</v>
+      </c>
+      <c r="G91">
+        <v>0.030754857154447549</v>
+      </c>
+      <c r="H91">
+        <v>0.00057648603593946307</v>
+      </c>
+      <c r="I91">
+        <v>0.89457074868642616</v>
+      </c>
+      <c r="J91">
+        <v>3.1491042578146081e-05</v>
+      </c>
+      <c r="K91">
+        <v>8</v>
+      </c>
+      <c r="L91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B92">
+        <v>0.0035027698579793943</v>
+      </c>
+      <c r="C92">
+        <v>0.0064223859643367598</v>
+      </c>
+      <c r="D92">
+        <v>0.024250994377033267</v>
+      </c>
+      <c r="E92">
+        <v>0.16576656144747304</v>
+      </c>
+      <c r="F92">
+        <v>2.0153248048071595e-06</v>
+      </c>
+      <c r="G92">
+        <v>0.014052814330099195</v>
+      </c>
+      <c r="H92">
+        <v>0.00038130939981669259</v>
+      </c>
+      <c r="I92">
+        <v>0.78561958699848256</v>
+      </c>
+      <c r="J92">
+        <v>1.5622999743591938e-06</v>
+      </c>
+      <c r="K92">
+        <v>8</v>
+      </c>
+      <c r="L92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B93">
+        <v>0.0023779778220892243</v>
+      </c>
+      <c r="C93">
+        <v>0.013632076044588479</v>
+      </c>
+      <c r="D93">
+        <v>0.0076902819595698066</v>
+      </c>
+      <c r="E93">
+        <v>0.00063132933030820139</v>
+      </c>
+      <c r="F93">
+        <v>0.00047994072677767818</v>
+      </c>
+      <c r="G93">
+        <v>0.017085727567162343</v>
+      </c>
+      <c r="H93">
+        <v>0.00020087668606524959</v>
+      </c>
+      <c r="I93">
+        <v>0.95790149442945827</v>
+      </c>
+      <c r="J93">
+        <v>2.9543398076619877e-07</v>
+      </c>
+      <c r="K93">
+        <v>8</v>
+      </c>
+      <c r="L93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B94">
+        <v>0.047744657280093396</v>
+      </c>
+      <c r="C94">
+        <v>0.09841616253628703</v>
+      </c>
+      <c r="D94">
+        <v>0.31535795974159908</v>
+      </c>
+      <c r="E94">
+        <v>0.015808842694899131</v>
+      </c>
+      <c r="F94">
+        <v>1.7600141101429563e-05</v>
+      </c>
+      <c r="G94">
+        <v>0.047960111287988591</v>
+      </c>
+      <c r="H94">
+        <v>0.0014585881817470346</v>
+      </c>
+      <c r="I94">
+        <v>0.47311598136432775</v>
+      </c>
+      <c r="J94">
+        <v>0.00012009677195665777</v>
+      </c>
+      <c r="K94">
+        <v>8</v>
+      </c>
+      <c r="L94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B95">
+        <v>0.0016668879983444851</v>
+      </c>
+      <c r="C95">
+        <v>0.008601222928731193</v>
+      </c>
+      <c r="D95">
+        <v>0.13646525230261847</v>
+      </c>
+      <c r="E95">
+        <v>0.070104479144818807</v>
+      </c>
+      <c r="F95">
+        <v>0.0008670448687371087</v>
+      </c>
+      <c r="G95">
+        <v>0.090377817858567258</v>
+      </c>
+      <c r="H95">
+        <v>0.00094663607835628277</v>
+      </c>
+      <c r="I95">
+        <v>0.69096350034904874</v>
+      </c>
+      <c r="J95">
+        <v>7.1584707775064295e-06</v>
+      </c>
+      <c r="K95">
+        <v>8</v>
+      </c>
+      <c r="L95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B96">
+        <v>0.0032382482371824989</v>
+      </c>
+      <c r="C96">
+        <v>0.043252199094344392</v>
+      </c>
+      <c r="D96">
+        <v>0.025032596106163593</v>
+      </c>
+      <c r="E96">
+        <v>0.014639265958551933</v>
+      </c>
+      <c r="F96">
+        <v>0.00074148355030998067</v>
+      </c>
+      <c r="G96">
+        <v>0.049147883541730553</v>
+      </c>
+      <c r="H96">
+        <v>0.035432243021877551</v>
+      </c>
+      <c r="I96">
+        <v>0.80915089794349704</v>
+      </c>
+      <c r="J96">
+        <v>0.019365182546342442</v>
+      </c>
+      <c r="K96">
+        <v>8</v>
+      </c>
+      <c r="L96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="B97">
+        <v>0.0048560868854075684</v>
+      </c>
+      <c r="C97">
+        <v>0.0087551757496329378</v>
+      </c>
+      <c r="D97">
+        <v>0.01291830672146372</v>
+      </c>
+      <c r="E97">
+        <v>0.014926476905040802</v>
+      </c>
+      <c r="F97">
+        <v>0.00086182510711223909</v>
+      </c>
+      <c r="G97">
+        <v>0.070028107466199349</v>
+      </c>
+      <c r="H97">
+        <v>0.049183189107641898</v>
+      </c>
+      <c r="I97">
+        <v>0.8250261755311098</v>
+      </c>
+      <c r="J97">
+        <v>0.013444656526391532</v>
+      </c>
+      <c r="K97">
+        <v>8</v>
+      </c>
+      <c r="L97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B98">
+        <v>0.0020289078133985247</v>
+      </c>
+      <c r="C98">
+        <v>0.0098565753542436546</v>
+      </c>
+      <c r="D98">
+        <v>0.0075244694472302561</v>
+      </c>
+      <c r="E98">
+        <v>0.0062171131947419394</v>
+      </c>
+      <c r="F98">
+        <v>0.00012366915017836437</v>
+      </c>
+      <c r="G98">
+        <v>0.065948762934334201</v>
+      </c>
+      <c r="H98">
+        <v>0.021631678673249791</v>
+      </c>
+      <c r="I98">
+        <v>0.8853119408528568</v>
+      </c>
+      <c r="J98">
+        <v>0.0013568825797663749</v>
+      </c>
+      <c r="K98">
+        <v>8</v>
+      </c>
+      <c r="L98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B99">
+        <v>0.0041504696840550847</v>
+      </c>
+      <c r="C99">
+        <v>0.030060068514198582</v>
+      </c>
+      <c r="D99">
+        <v>0.012497190216442289</v>
+      </c>
+      <c r="E99">
+        <v>0.014574770554624191</v>
+      </c>
+      <c r="F99">
+        <v>0.0015389499113033674</v>
+      </c>
+      <c r="G99">
+        <v>0.032486709523015196</v>
+      </c>
+      <c r="H99">
+        <v>0.041251662377353053</v>
+      </c>
+      <c r="I99">
+        <v>0.85532614379379091</v>
+      </c>
+      <c r="J99">
+        <v>0.0081140354252173964</v>
+      </c>
+      <c r="K99">
+        <v>8</v>
+      </c>
+      <c r="L99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B100">
+        <v>0.0012570413092827272</v>
+      </c>
+      <c r="C100">
+        <v>0.02580379424459937</v>
+      </c>
+      <c r="D100">
+        <v>0.029781252487821392</v>
+      </c>
+      <c r="E100">
+        <v>0.0017287762830539403</v>
+      </c>
+      <c r="F100">
+        <v>0.007117059414772333</v>
+      </c>
+      <c r="G100">
+        <v>0.040510382575509367</v>
+      </c>
+      <c r="H100">
+        <v>0.0053521123306991304</v>
+      </c>
+      <c r="I100">
+        <v>0.88759565303619892</v>
+      </c>
+      <c r="J100">
+        <v>0.00085392831806280309</v>
+      </c>
+      <c r="K100">
+        <v>8</v>
+      </c>
+      <c r="L100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B101">
+        <v>0.0024868029277801676</v>
+      </c>
+      <c r="C101">
+        <v>0.047570394780536727</v>
+      </c>
+      <c r="D101">
+        <v>0.0071605378734564719</v>
+      </c>
+      <c r="E101">
+        <v>0.00098961704825044502</v>
+      </c>
+      <c r="F101">
+        <v>0.0019701902188235011</v>
+      </c>
+      <c r="G101">
+        <v>0.021644895558912646</v>
+      </c>
+      <c r="H101">
+        <v>0.0027467384383044178</v>
+      </c>
+      <c r="I101">
+        <v>0.91362561830557065</v>
+      </c>
+      <c r="J101">
+        <v>0.0018052048483649017</v>
+      </c>
+      <c r="K101">
+        <v>8</v>
+      </c>
+      <c r="L101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B102">
+        <v>0.0016167587509156572</v>
+      </c>
+      <c r="C102">
+        <v>0.011791538875513033</v>
+      </c>
+      <c r="D102">
+        <v>0.018900166032525676</v>
+      </c>
+      <c r="E102">
+        <v>0.0066850860393896858</v>
+      </c>
+      <c r="F102">
+        <v>0.0031476840625920106</v>
+      </c>
+      <c r="G102">
+        <v>0.03670589927245909</v>
+      </c>
+      <c r="H102">
+        <v>0.0055885898426215989</v>
+      </c>
+      <c r="I102">
+        <v>0.91510946565267637</v>
+      </c>
+      <c r="J102">
+        <v>0.00045481147130691554</v>
+      </c>
+      <c r="K102">
+        <v>8</v>
+      </c>
+      <c r="L102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="B103">
+        <v>0.001722214104354101</v>
+      </c>
+      <c r="C103">
+        <v>0.0091704367753163655</v>
+      </c>
+      <c r="D103">
+        <v>0.014862296620746472</v>
+      </c>
+      <c r="E103">
+        <v>0.01325862335027992</v>
+      </c>
+      <c r="F103">
+        <v>0.0082029470936914126</v>
+      </c>
+      <c r="G103">
+        <v>0.039724787933259821</v>
+      </c>
+      <c r="H103">
+        <v>0.00519310032419613</v>
+      </c>
+      <c r="I103">
+        <v>0.88932675220244817</v>
+      </c>
+      <c r="J103">
+        <v>0.018538841595707567</v>
+      </c>
+      <c r="K103">
+        <v>8</v>
+      </c>
+      <c r="L103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B104">
+        <v>0.0087349721260283168</v>
+      </c>
+      <c r="C104">
+        <v>0.43394319805931031</v>
+      </c>
+      <c r="D104">
+        <v>0.012368616284279769</v>
+      </c>
+      <c r="E104">
+        <v>0.016267479217121288</v>
+      </c>
+      <c r="F104">
+        <v>0.0012047251361629063</v>
+      </c>
+      <c r="G104">
+        <v>0.18127030390688903</v>
+      </c>
+      <c r="H104">
+        <v>0.036814719498964026</v>
+      </c>
+      <c r="I104">
+        <v>0.085773797689190037</v>
+      </c>
+      <c r="J104">
+        <v>0.22362218808205442</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="B105">
+        <v>0.0012003730048001607</v>
+      </c>
+      <c r="C105">
+        <v>0.0020546555871273219</v>
+      </c>
+      <c r="D105">
+        <v>0.012222145962797252</v>
+      </c>
+      <c r="E105">
+        <v>0.0064996732496645105</v>
+      </c>
+      <c r="F105">
+        <v>0.0011021284296804741</v>
+      </c>
+      <c r="G105">
+        <v>0.014920259349245553</v>
+      </c>
+      <c r="H105">
+        <v>0.0017004145891169281</v>
+      </c>
+      <c r="I105">
+        <v>0.96006040428559902</v>
+      </c>
+      <c r="J105">
+        <v>0.00023994554196878447</v>
+      </c>
+      <c r="K105">
+        <v>8</v>
+      </c>
+      <c r="L105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B106">
+        <v>0.00082482717960915728</v>
+      </c>
+      <c r="C106">
+        <v>0.0052830254547876054</v>
+      </c>
+      <c r="D106">
+        <v>0.0098180066992861748</v>
+      </c>
+      <c r="E106">
+        <v>0.003417510262659156</v>
+      </c>
+      <c r="F106">
+        <v>0.0011359646827617095</v>
+      </c>
+      <c r="G106">
+        <v>0.012208253838267296</v>
+      </c>
+      <c r="H106">
+        <v>0.0023972963155517511</v>
+      </c>
+      <c r="I106">
+        <v>0.96478151624039699</v>
+      </c>
+      <c r="J106">
+        <v>0.00013359932668009162</v>
+      </c>
+      <c r="K106">
+        <v>8</v>
+      </c>
+      <c r="L106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B107">
+        <v>0.0030675840305535804</v>
+      </c>
+      <c r="C107">
+        <v>0.02895884990573892</v>
+      </c>
+      <c r="D107">
+        <v>0.033697583426089958</v>
+      </c>
+      <c r="E107">
+        <v>0.013788678087669348</v>
+      </c>
+      <c r="F107">
+        <v>0.004513854207357961</v>
+      </c>
+      <c r="G107">
+        <v>0.029949356904567768</v>
+      </c>
+      <c r="H107">
+        <v>0.0034673496391740416</v>
+      </c>
+      <c r="I107">
+        <v>0.88016953770958306</v>
+      </c>
+      <c r="J107">
+        <v>0.0023872060892653219</v>
+      </c>
+      <c r="K107">
+        <v>8</v>
+      </c>
+      <c r="L107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="B108">
+        <v>0.0026148270432399946</v>
+      </c>
+      <c r="C108">
+        <v>0.017879431296006915</v>
+      </c>
+      <c r="D108">
+        <v>0.0032918474416415893</v>
+      </c>
+      <c r="E108">
+        <v>0.023556788526111639</v>
+      </c>
+      <c r="F108">
+        <v>0.0010896989569236985</v>
+      </c>
+      <c r="G108">
+        <v>0.054709168305311272</v>
+      </c>
+      <c r="H108">
+        <v>0.1263345424824846</v>
+      </c>
+      <c r="I108">
+        <v>0.75255006885240461</v>
+      </c>
+      <c r="J108">
+        <v>0.017973627095875622</v>
+      </c>
+      <c r="K108">
+        <v>8</v>
+      </c>
+      <c r="L108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B109">
+        <v>0.0012302911839420726</v>
+      </c>
+      <c r="C109">
+        <v>0.00461677126690219</v>
+      </c>
+      <c r="D109">
+        <v>0.03422798922653203</v>
+      </c>
+      <c r="E109">
+        <v>0.055133983233391727</v>
+      </c>
+      <c r="F109">
+        <v>0.0072570429012687922</v>
+      </c>
+      <c r="G109">
+        <v>0.028960750798260399</v>
+      </c>
+      <c r="H109">
+        <v>0.00046010597433667345</v>
+      </c>
+      <c r="I109">
+        <v>0.86795482947225788</v>
+      </c>
+      <c r="J109">
+        <v>0.0001582359431082406</v>
+      </c>
+      <c r="K109">
+        <v>8</v>
+      </c>
+      <c r="L109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B110">
+        <v>0.0010161673022383545</v>
+      </c>
+      <c r="C110">
+        <v>0.00095814442613492993</v>
+      </c>
+      <c r="D110">
+        <v>0.047206213571226001</v>
+      </c>
+      <c r="E110">
+        <v>0.0083072535589915168</v>
+      </c>
+      <c r="F110">
+        <v>0.0017551782355965878</v>
+      </c>
+      <c r="G110">
+        <v>0.010538012976983245</v>
+      </c>
+      <c r="H110">
+        <v>0.00094819095020205497</v>
+      </c>
+      <c r="I110">
+        <v>0.92918814681411821</v>
+      </c>
+      <c r="J110">
+        <v>8.2692164509046766e-05</v>
+      </c>
+      <c r="K110">
+        <v>8</v>
+      </c>
+      <c r="L110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B111">
+        <v>0.0019698453026267991</v>
+      </c>
+      <c r="C111">
+        <v>0.013544814350911689</v>
+      </c>
+      <c r="D111">
+        <v>0.077422921849371662</v>
+      </c>
+      <c r="E111">
+        <v>0.0098058060699902083</v>
+      </c>
+      <c r="F111">
+        <v>0.0076427794540406208</v>
+      </c>
+      <c r="G111">
+        <v>0.041200733733597263</v>
+      </c>
+      <c r="H111">
+        <v>0.0018392298106602041</v>
+      </c>
+      <c r="I111">
+        <v>0.84616543109325615</v>
+      </c>
+      <c r="J111">
+        <v>0.00040843833554534895</v>
+      </c>
+      <c r="K111">
+        <v>8</v>
+      </c>
+      <c r="L111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="B112">
+        <v>0.0019894960512588876</v>
+      </c>
+      <c r="C112">
+        <v>0.0094068326530969571</v>
+      </c>
+      <c r="D112">
+        <v>0.048612474648153096</v>
+      </c>
+      <c r="E112">
+        <v>0.011631869776517033</v>
+      </c>
+      <c r="F112">
+        <v>0.0019624846569999137</v>
+      </c>
+      <c r="G112">
+        <v>0.023985087145882881</v>
+      </c>
+      <c r="H112">
+        <v>0.00068702301721071</v>
+      </c>
+      <c r="I112">
+        <v>0.90168730335251213</v>
+      </c>
+      <c r="J112">
+        <v>3.7428698368359346e-05</v>
+      </c>
+      <c r="K112">
+        <v>8</v>
+      </c>
+      <c r="L112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B113">
+        <v>0.00029392625009782886</v>
+      </c>
+      <c r="C113">
+        <v>0.013930266227822683</v>
+      </c>
+      <c r="D113">
+        <v>0.021246661268580609</v>
+      </c>
+      <c r="E113">
+        <v>0.025971375901675232</v>
+      </c>
+      <c r="F113">
+        <v>0.00020057735206818031</v>
+      </c>
+      <c r="G113">
+        <v>0.0045642983818148918</v>
+      </c>
+      <c r="H113">
+        <v>0.0010078388516431757</v>
+      </c>
+      <c r="I113">
+        <v>0.93278502080605008</v>
+      </c>
+      <c r="J113">
+        <v>3.4960247372774653e-08</v>
+      </c>
+      <c r="K113">
+        <v>8</v>
+      </c>
+      <c r="L113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B114">
+        <v>0.0041935652877896652</v>
+      </c>
+      <c r="C114">
+        <v>0.032858798811014209</v>
+      </c>
+      <c r="D114">
+        <v>0.055674902500146353</v>
+      </c>
+      <c r="E114">
+        <v>0.0072686375124199959</v>
+      </c>
+      <c r="F114">
+        <v>0.001408890682541663</v>
+      </c>
+      <c r="G114">
+        <v>0.045509093964137007</v>
+      </c>
+      <c r="H114">
+        <v>0.00067565017629295969</v>
+      </c>
+      <c r="I114">
+        <v>0.85227300002183703</v>
+      </c>
+      <c r="J114">
+        <v>0.00013746104382106176</v>
+      </c>
+      <c r="K114">
+        <v>8</v>
+      </c>
+      <c r="L114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B115">
+        <v>0.014813374354445371</v>
+      </c>
+      <c r="C115">
+        <v>0.034126952162792504</v>
+      </c>
+      <c r="D115">
+        <v>0.0044931674866489617</v>
+      </c>
+      <c r="E115">
+        <v>0.0037277154661098035</v>
+      </c>
+      <c r="F115">
+        <v>0.0014283217301899358</v>
+      </c>
+      <c r="G115">
+        <v>0.043269220581033004</v>
+      </c>
+      <c r="H115">
+        <v>0.18549435983293733</v>
+      </c>
+      <c r="I115">
+        <v>0.32996751639454081</v>
+      </c>
+      <c r="J115">
+        <v>0.38267937199130225</v>
+      </c>
+      <c r="K115">
+        <v>9</v>
+      </c>
+      <c r="L115">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B116">
+        <v>0.0078794057668175391</v>
+      </c>
+      <c r="C116">
+        <v>0.092112887073985419</v>
+      </c>
+      <c r="D116">
+        <v>0.0012666513807514479</v>
+      </c>
+      <c r="E116">
+        <v>0.00090895246444796021</v>
+      </c>
+      <c r="F116">
+        <v>0.0018103933995102719</v>
+      </c>
+      <c r="G116">
+        <v>0.042171052014377923</v>
+      </c>
+      <c r="H116">
+        <v>0.076005934708985395</v>
+      </c>
+      <c r="I116">
+        <v>0.12289181850082856</v>
+      </c>
+      <c r="J116">
+        <v>0.65495290469029555</v>
+      </c>
+      <c r="K116">
+        <v>9</v>
+      </c>
+      <c r="L116">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>